--- a/assembly/BOM - Bumperbot.xlsx
+++ b/assembly/BOM - Bumperbot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Product</t>
   </si>
@@ -28,9 +28,8 @@
     <t>Link</t>
   </si>
   <si>
-    <t xml:space="preserve">DC Motor with Encoder and Wheel
-JGA25-370 DC 6V 12V 24V
-</t>
+    <t>DC Motor with Encoder and Wheel
+JGA25-370 DC 12 V 170 RPM</t>
   </si>
   <si>
     <t>15€ - 20€</t>
@@ -90,12 +89,6 @@
     <t>3€ - 5€</t>
   </si>
   <si>
-    <t>3-State Switch</t>
-  </si>
-  <si>
-    <t>0.5€ - 1€</t>
-  </si>
-  <si>
     <t>DC-DC Converter LM2596s</t>
   </si>
   <si>
@@ -105,10 +98,10 @@
     <t>Arduino Nano</t>
   </si>
   <si>
-    <t>Raspberry Pi 4</t>
+    <t>Raspberry Pi 4 or 5</t>
   </si>
   <si>
-    <t>150€ - 200€</t>
+    <t>70€ - 100€</t>
   </si>
   <si>
     <r>
@@ -135,7 +128,7 @@
     </r>
   </si>
   <si>
-    <t>Lipo Battery 3S 11,1 V 3300mAh</t>
+    <t>Lipo Battery 3S 11,1 V 3300mAh, XT60</t>
   </si>
   <si>
     <t>10€ - 15€</t>
@@ -144,7 +137,31 @@
     <t>Aliexpress</t>
   </si>
   <si>
-    <t>Waffle Front Base Plate</t>
+    <t>XT60 Female Connector</t>
+  </si>
+  <si>
+    <t>Jumper Cables</t>
+  </si>
+  <si>
+    <t>Type C Cable Male - 2 Pin</t>
+  </si>
+  <si>
+    <t>Mini USB Cable</t>
+  </si>
+  <si>
+    <t>M3 Screws 6mm</t>
+  </si>
+  <si>
+    <t>M3 Screws 8mm</t>
+  </si>
+  <si>
+    <t>M3 Screws 45mm</t>
+  </si>
+  <si>
+    <t>M3 Nuts</t>
+  </si>
+  <si>
+    <t>Waffle Base</t>
   </si>
   <si>
     <t>N/A</t>
@@ -153,26 +170,17 @@
     <t>STL Part</t>
   </si>
   <si>
-    <t>Waffle Rear Base Plate</t>
+    <t>Waffle Middle</t>
   </si>
   <si>
-    <t>Waffle Rear Plate</t>
-  </si>
-  <si>
-    <t>Waffle Front Plate</t>
-  </si>
-  <si>
-    <t>Board Bracket Small</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Board Bracket  </t>
+    <t>Waffle Roof</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -200,10 +208,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border/>
     <border>
       <left style="medium">
@@ -246,14 +250,6 @@
       </right>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -287,19 +283,19 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -368,7 +364,7 @@
     <xdr:ext cx="1762125" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -396,7 +392,7 @@
     <xdr:ext cx="1838325" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -424,7 +420,7 @@
     <xdr:ext cx="1838325" cy="1838325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -452,7 +448,7 @@
     <xdr:ext cx="1762125" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image18.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -472,47 +468,19 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1771650</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1838325" cy="1276350"/>
+    <xdr:ext cx="1762125" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image16.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1562100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1762125" cy="1724025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Immagine"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -536,7 +504,7 @@
     <xdr:ext cx="1838325" cy="1724025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image14.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -564,7 +532,35 @@
     <xdr:ext cx="1762125" cy="1790700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Immagine"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1838325" cy="1466850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image10.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -584,15 +580,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1790700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1838325" cy="1466850"/>
+    <xdr:ext cx="1838325" cy="1657350"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image8.png" title="Immagine"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -612,15 +608,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1790700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1838325" cy="1657350"/>
+    <xdr:ext cx="1676400" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image19.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -641,14 +637,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1838325" cy="1514475"/>
+    <xdr:ext cx="1885950" cy="1371600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Immagine"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -673,10 +669,10 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="1552575"/>
+    <xdr:ext cx="1885950" cy="1409700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -701,10 +697,10 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="1571625"/>
+    <xdr:ext cx="1676400" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -729,10 +725,10 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="1571625"/>
+    <xdr:ext cx="1676400" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -757,10 +753,10 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="1533525"/>
+    <xdr:ext cx="1676400" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image9.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -785,10 +781,66 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="1209675"/>
+    <xdr:ext cx="1676400" cy="1676400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1676400" cy="1676400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image6.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1676400" cy="1676400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image20.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -810,13 +862,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1885950" cy="904875"/>
+    <xdr:ext cx="1885950" cy="1181100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -834,11 +886,67 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1885950" cy="1181100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1885950" cy="1276350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E18" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E22" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="5">
     <tableColumn name="Product" id="1"/>
     <tableColumn name="Quantity" id="2"/>
@@ -1100,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
@@ -1115,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
@@ -1130,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
@@ -1170,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="123.0" customHeight="1">
+    <row r="8" ht="141.0" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1302,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>7</v>
@@ -1202,167 +1310,183 @@
     </row>
     <row r="10" ht="141.0" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3">
         <v>1.0</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" ht="141.0" customHeight="1">
+    <row r="11" ht="132.0" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>1.0</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="132.0" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
+      <c r="A12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="3">
         <v>1.0</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" ht="132.0" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" ht="129.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="B13" s="3">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="135.0" customHeight="1">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" ht="132.0" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>1.0</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" ht="132.0" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="129.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B15" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" ht="132.0" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="129.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B16" s="3">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="129.75" customHeight="1">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" ht="132.0" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
-        <v>4.0</v>
+        <v>28.0</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>31</v>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" ht="132.0" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
       </c>
-    </row>
-    <row r="18" ht="129.75" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="B18" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" ht="132.0" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" ht="129.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10">
-        <v>4.0</v>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
-        <v>30</v>
+    </row>
+    <row r="21" ht="135.0" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>31</v>
+      <c r="B21" s="3">
+        <v>1.0</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="129.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="12"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
@@ -8265,6 +8389,34 @@
       <c r="C1008" s="13"/>
       <c r="D1008" s="13"/>
       <c r="E1008" s="13"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="13"/>
+      <c r="B1009" s="13"/>
+      <c r="C1009" s="13"/>
+      <c r="D1009" s="13"/>
+      <c r="E1009" s="13"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="13"/>
+      <c r="B1010" s="13"/>
+      <c r="C1010" s="13"/>
+      <c r="D1010" s="13"/>
+      <c r="E1010" s="13"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="13"/>
+      <c r="B1011" s="13"/>
+      <c r="C1011" s="13"/>
+      <c r="D1011" s="13"/>
+      <c r="E1011" s="13"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="13"/>
+      <c r="B1012" s="13"/>
+      <c r="C1012" s="13"/>
+      <c r="D1012" s="13"/>
+      <c r="E1012" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8278,17 +8430,13 @@
     <hyperlink r:id="rId8" ref="E9"/>
     <hyperlink r:id="rId9" ref="E10"/>
     <hyperlink r:id="rId10" ref="E11"/>
-    <hyperlink r:id="rId11" ref="E12"/>
-    <hyperlink r:id="rId12" ref="E13"/>
-    <hyperlink r:id="rId13" ref="E14"/>
-    <hyperlink r:id="rId14" ref="E15"/>
-    <hyperlink r:id="rId15" ref="E16"/>
-    <hyperlink r:id="rId16" ref="E17"/>
-    <hyperlink r:id="rId17" ref="E18"/>
+    <hyperlink r:id="rId11" ref="E20"/>
+    <hyperlink r:id="rId12" ref="E21"/>
+    <hyperlink r:id="rId13" ref="E22"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>